--- a/Modelos/Intro/Data.xlsx
+++ b/Modelos/Intro/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyThings\GitSandbox\PhD_Daniel_Mota_Data\Modelos\Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D592B59A-21BE-4DBA-B840-A4E06BA35E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47645914-6528-4522-A978-E97E775EB368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44595" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{E6A0B64A-6D24-4738-B54D-AADAED82471D}"/>
+    <workbookView xWindow="570" yWindow="4260" windowWidth="21600" windowHeight="11340" xr2:uid="{E6A0B64A-6D24-4738-B54D-AADAED82471D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>time</t>
   </si>
@@ -64,10 +64,28 @@
     <t>minf</t>
   </si>
   <si>
+    <t>time at minf</t>
+  </si>
+  <si>
     <t>index minf</t>
   </si>
   <si>
-    <t>time minf</t>
+    <t>pmec at minf</t>
+  </si>
+  <si>
+    <t>pload at minf</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>f at time</t>
+  </si>
+  <si>
+    <t>pprim at time</t>
+  </si>
+  <si>
+    <t>psec at time</t>
   </si>
 </sst>
 </file>
@@ -425,14 +443,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957733A4-37EA-4A3D-A843-C1025B658638}">
   <dimension ref="A1:K814"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="11" style="2" customWidth="1"/>
-    <col min="9" max="11" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -495,11 +515,11 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1">
-        <f>MATCH(K1,B2:B814,)</f>
-        <v>130</v>
+        <f>MATCH(K1,B2:B814,)-1</f>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -528,11 +548,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1">
-        <f ca="1">OFFSET(A2,K2,0)</f>
-        <v>12.099589999999999</v>
+        <f ca="1">OFFSET(A2,$K$2,0)</f>
+        <v>11.99959</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -560,6 +580,13 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1">
+        <f ca="1">OFFSET(D2,$K$2,0)</f>
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -586,6 +613,13 @@
       <c r="H5" s="2">
         <v>0</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1">
+        <f ca="1">OFFSET(E2,$K$2,0)</f>
+        <v>0.54933770000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -638,6 +672,12 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -664,6 +704,13 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1">
+        <f>MATCH(K7,A2:A814,)-1</f>
+        <v>412</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -690,6 +737,13 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1">
+        <f ca="1">OFFSET(B2,K8,0)</f>
+        <v>0.99525509999999995</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -768,6 +822,12 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -794,6 +854,13 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1">
+        <f>MATCH(K12,A2:A814,1)-1</f>
+        <v>129</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -820,6 +887,13 @@
       <c r="H14" s="2">
         <v>0</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="1">
+        <f ca="1">OFFSET(B2,K13,0)</f>
+        <v>0.98883560000000004</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -873,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.97849140000000001</v>
       </c>
@@ -898,8 +972,14 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1.0784910000000001</v>
       </c>
@@ -924,8 +1004,15 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1">
+        <f>MATCH(K17,A2:A814,1)-1</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1.178491</v>
       </c>
@@ -950,8 +1037,15 @@
       <c r="H19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1">
+        <f ca="1">OFFSET(G2,K18,0)</f>
+        <v>4.9999500000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1.278491</v>
       </c>
@@ -977,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1.3784909999999999</v>
       </c>
@@ -1002,8 +1096,14 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1.478491</v>
       </c>
@@ -1028,8 +1128,15 @@
       <c r="H22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1">
+        <f>MATCH(K21,A2:A814,1)-1</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1.5784910000000001</v>
       </c>
@@ -1054,8 +1161,15 @@
       <c r="H23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1">
+        <f ca="1">OFFSET(H2,K22,0)</f>
+        <v>3.1972170000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1.678491</v>
       </c>
@@ -1081,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1.778491</v>
       </c>
@@ -1107,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1.8784909999999999</v>
       </c>
@@ -1133,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1.978491</v>
       </c>
@@ -1159,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2.0784910000000001</v>
       </c>
@@ -1185,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2.1784910000000002</v>
       </c>
@@ -1211,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2.2784909999999998</v>
       </c>
@@ -1237,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2.3784909999999999</v>
       </c>
@@ -1263,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2.478491</v>
       </c>
